--- a/ml_all/output/nn600600.xlsx
+++ b/ml_all/output/nn600600.xlsx
@@ -423,75 +423,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>6727</v>
+        <v>1352</v>
       </c>
       <c r="B1" t="n">
-        <v>5474</v>
+        <v>4850</v>
       </c>
       <c r="C1" t="n">
-        <v>278</v>
+        <v>7732</v>
       </c>
       <c r="D1" t="n">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="E1" t="n">
-        <v>1436</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3302</v>
+        <v>1435</v>
       </c>
       <c r="B2" t="n">
-        <v>5994</v>
+        <v>4512</v>
       </c>
       <c r="C2" t="n">
-        <v>261</v>
+        <v>6218</v>
       </c>
       <c r="D2" t="n">
-        <v>2072</v>
+        <v>1896</v>
       </c>
       <c r="E2" t="n">
-        <v>2530</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1514</v>
+        <v>1351</v>
       </c>
       <c r="B3" t="n">
-        <v>2860</v>
+        <v>1797</v>
       </c>
       <c r="C3" t="n">
-        <v>628</v>
+        <v>5505</v>
       </c>
       <c r="D3" t="n">
-        <v>6276</v>
+        <v>5482</v>
       </c>
       <c r="E3" t="n">
-        <v>2881</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="B4" t="n">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="D4" t="n">
-        <v>12643</v>
+        <v>12326</v>
       </c>
       <c r="E4" t="n">
-        <v>1044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -500,95 +500,95 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12780</v>
+        <v>12925</v>
       </c>
       <c r="E5" t="n">
-        <v>1379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2075</v>
+        <v>314</v>
       </c>
       <c r="B7" t="n">
-        <v>5942</v>
+        <v>3912</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>4390</v>
       </c>
       <c r="D7" t="n">
-        <v>185</v>
+        <v>118</v>
       </c>
       <c r="E7" t="n">
-        <v>1265</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2008</v>
+        <v>799</v>
       </c>
       <c r="B8" t="n">
-        <v>4120</v>
+        <v>3011</v>
       </c>
       <c r="C8" t="n">
-        <v>181</v>
+        <v>3901</v>
       </c>
       <c r="D8" t="n">
-        <v>1642</v>
+        <v>1484</v>
       </c>
       <c r="E8" t="n">
-        <v>1529</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>997</v>
+        <v>774</v>
       </c>
       <c r="B9" t="n">
-        <v>2308</v>
+        <v>1662</v>
       </c>
       <c r="C9" t="n">
-        <v>182</v>
+        <v>3627</v>
       </c>
       <c r="D9" t="n">
-        <v>4100</v>
+        <v>3009</v>
       </c>
       <c r="E9" t="n">
-        <v>1893</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B10" t="n">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>56</v>
+        <v>770</v>
       </c>
       <c r="D10" t="n">
-        <v>8657</v>
+        <v>8508</v>
       </c>
       <c r="E10" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3987</v>
+        <v>3421</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>726</v>
+        <v>1242</v>
       </c>
       <c r="D11" t="n">
-        <v>2723</v>
+        <v>4817</v>
       </c>
       <c r="E11" t="n">
-        <v>2044</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
